--- a/individual_case_outputs/avey/187.xlsx
+++ b/individual_case_outputs/avey/187.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>diabetes mellitus (type 2)</t>
+          <t>diabetes insipidus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>metabolic syndrome</t>
+          <t>hyperosmolar hyperglycemic state</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
